--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="579">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,9 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem. 
+    <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem, basert på no-basis-Organization.
 Denne profilen av Organization benyttes for å beskrive helseinstitusjoner og skal representere organisasjonen på lavest mulig nivå i organisasjonshierarkiet (f.eks. en avdeling eller klinikk eller post).
-For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle “organisasjonshierarki” skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH) </t>
+For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle "organisasjonshierarki" skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH) </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -116,7 +116,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -271,7 +271,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}lmdi-org-identifier:Organisasjon skal ha minst ENH eller RSH identifier {identifier.where(system='urn:oid:2.16.578.1.12.4.1.4.101' or system='urn:oid:2.16.578.1.12.4.1.4.102').exists()}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -486,11 +486,11 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>closed</t>
+    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">org-1
@@ -515,6 +515,10 @@
     <t>ENH</t>
   </si>
   <si>
+    <t>organisasjonsnummer
+organization number</t>
+  </si>
+  <si>
     <t>Organisasjonsnummer fra Enhetsregisteret (ENH)</t>
   </si>
   <si>
@@ -559,9 +563,6 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -677,7 +678,7 @@
     <t>Organization.identifier.value</t>
   </si>
   <si>
-    <t>Organisasjonsnummer</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -760,10 +761,10 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
-    <t>Organization.identifier:RESH</t>
-  </si>
-  <si>
-    <t>RESH</t>
+    <t>Organization.identifier:RSH</t>
+  </si>
+  <si>
+    <t>RSH</t>
   </si>
   <si>
     <t>ID fra Register for enheter i spesialisthelsetjenesten (RESH)</t>
@@ -772,34 +773,31 @@
     <t>Det nivået aktiviteten har skjedd på.</t>
   </si>
   <si>
-    <t>Organization.identifier:RESH.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.system</t>
+    <t>Organization.identifier:RSH.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.system</t>
   </si>
   <si>
     <t>urn:oid:2.16.578.1.12.4.1.4.102</t>
   </si>
   <si>
-    <t>Organization.identifier:RESH.value</t>
-  </si>
-  <si>
-    <t>RESH-ID</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.assigner</t>
+    <t>Organization.identifier:RSH.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.assigner</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -854,7 +852,17 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/organization-type</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Used to categorize the organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.system}
+</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -864,6 +872,274 @@
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva</t>
+  </si>
+  <si>
+    <t>organisatoriskNiva</t>
+  </si>
+  <si>
+    <t>Organisatorisk nivå</t>
+  </si>
+  <si>
+    <t>The kind(s) of organization that this is.</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8628</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.id</t>
+  </si>
+  <si>
+    <t>Organization.type.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.extension</t>
+  </si>
+  <si>
+    <t>Organization.type.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding</t>
+  </si>
+  <si>
+    <t>Organization.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.system</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.version</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.code</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.display</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.text</t>
+  </si>
+  <si>
+    <t>Organization.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse</t>
+  </si>
+  <si>
+    <t>organisatoriskBetegnelse</t>
+  </si>
+  <si>
+    <t>Organisatorisk betegnelse</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8624</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.system</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.version</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.code</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.display</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.text</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -945,7 +1221,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
 </t>
   </si>
   <si>
@@ -984,10 +1260,72 @@
     <t>Organization.address.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:official</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offisiell adresse
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-address-official}
+</t>
+  </si>
+  <si>
+    <t>The concept of an officially registered address</t>
+  </si>
+  <si>
+    <t>Defines the concept of an officially registered address in Norway. Usually this will be the adress registered in "Folkeregisteret" for persons or "Enhetsregisteret" for organizations.</t>
+  </si>
+  <si>
     <t>Organization.address.extension:urbanDistrict</t>
   </si>
   <si>
     <t>urbanDistrict</t>
+  </si>
+  <si>
+    <t>bydel
+urban district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-urban-district}
+</t>
+  </si>
+  <si>
+    <t>urban district information</t>
+  </si>
+  <si>
+    <t>The name and number of the of the urban district of this address.</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:propertyInformation</t>
+  </si>
+  <si>
+    <t>propertyInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-propertyinformation}
+</t>
+  </si>
+  <si>
+    <t>Real property identification</t>
+  </si>
+  <si>
+    <t>Identification of a real property in Norway is defined using gårdsnummer, bruksnummer and kommunenummer. In addition real property can be rented out, the area of the real property that is rented is measured and is further identified by its festenummer. In addition some real property is split into sections identified by its seksjonsnummer</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:lmdiUrbanDistrict</t>
+  </si>
+  <si>
+    <t>lmdiUrbanDistrict</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-urban-district}
@@ -1006,7 +1344,8 @@
     <t>home | work | temp | old | billing - purpose of this address</t>
   </si>
   <si>
-    <t>The purpose of this address.</t>
+    <t>The purpose of this address.
+Mapping of values to other Norwegian CodeSystems is documented in the implementation guide. In general the address used for visiting the person should have use "home" and type "physical" or "both". The "official" flag can be either true or false.</t>
   </si>
   <si>
     <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
@@ -1042,7 +1381,8 @@
     <t>postal | physical | both</t>
   </si>
   <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
+Mapping of values to other Norwegian CodeSystems is documented in the implementation guide. In general the address used for visiting the person should have use "home" and type "physical" or "both". The "official" flag can be either true or false.</t>
   </si>
   <si>
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
@@ -1120,14 +1460,15 @@
     <t>Organization.address.city</t>
   </si>
   <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+    <t>Municpality
+bypoststed</t>
+  </si>
+  <si>
+    <t>Poststed or city</t>
+  </si>
+  <si>
+    <t>When a postalcode is given the name of the city must be according to the official list of postalcodes used in Norway.
+The name of the city, town, village or other community or delivery center.</t>
   </si>
   <si>
     <t>Erewhon</t>
@@ -1148,14 +1489,15 @@
     <t>Organization.address.district</t>
   </si>
   <si>
-    <t xml:space="preserve">County
-</t>
+    <t>County
+kommune</t>
   </si>
   <si>
     <t>Kommune</t>
   </si>
   <si>
-    <t>The name of the administrative area (county).</t>
+    <t>Name of the county (norwegian "kommune").
+The name of the administrative area (county).</t>
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
@@ -1185,19 +1527,13 @@
     <t>Organization.address.district.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>Organization.address.district.extension:municipalitycode</t>
   </si>
   <si>
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-municipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-municipalitycode}
 </t>
   </si>
   <si>
@@ -1227,13 +1563,14 @@
   </si>
   <si>
     <t>Province
-Territory</t>
+Territoryfylke</t>
   </si>
   <si>
     <t>Fylkesnavn</t>
   </si>
   <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+    <t>Name of the norwegian "fylke"). If fylkes-number is required "eiendomsinformasjon" should be used with koded kommune-number.
+Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (i.e. US 2 letter state codes).</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1251,14 +1588,15 @@
     <t>Organization.address.postalCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Zip
-</t>
+    <t>Zip
+postnummer</t>
   </si>
   <si>
     <t>Postal code for area</t>
   </si>
   <si>
-    <t>A postal code designating a region defined by the postal service.</t>
+    <t>A postal code designating a region defined by the postal service.
+In Norway this is af four digit number defined by the norwegian postal service.</t>
   </si>
   <si>
     <t>9132</t>
@@ -1477,7 +1815,8 @@
     <t>Technical endpoints providing access to services operated for the organization</t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the organization.</t>
+    <t>Technical endpoints providing access to services operated for the organization.
+no-basis don't use this element to reference endpoints registered in the Norwegian Address register (endpoints connected to a kommunikasjonspart in tjenestebasert adressering). Endpoints registered in the Norwegian Address register should only be referenced through a kommunikasjonspart-Organization resource.</t>
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
@@ -1808,7 +2147,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1817,9 +2156,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.9921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1827,7 +2166,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.29296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1842,7 +2181,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.05078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.5390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3129,14 +3468,14 @@
         <v>158</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3151,13 +3490,13 @@
         <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
         <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>149</v>
@@ -3238,10 +3577,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3264,13 +3603,13 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3321,7 +3660,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3339,7 +3678,7 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3350,10 +3689,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3382,7 +3721,7 @@
         <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>136</v>
@@ -3423,16 +3762,16 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>174</v>
@@ -3453,7 +3792,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3838,7 +4177,7 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>212</v>
@@ -4168,7 +4507,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4273,7 +4612,7 @@
         <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4296,13 +4635,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4353,7 +4692,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4371,7 +4710,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4385,7 +4724,7 @@
         <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4414,7 +4753,7 @@
         <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>136</v>
@@ -4455,16 +4794,16 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>174</v>
@@ -4485,7 +4824,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4870,10 +5209,10 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>213</v>
@@ -4958,7 +5297,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>221</v>
@@ -5070,7 +5409,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>230</v>
@@ -5184,10 +5523,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5210,26 +5549,26 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="O30" t="s" s="2">
+      <c r="P30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5273,7 +5612,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5288,24 +5627,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5313,7 +5652,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5331,16 +5670,16 @@
         <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5365,29 +5704,29 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5402,38 +5741,40 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>77</v>
@@ -5442,19 +5783,19 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5479,13 +5820,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5503,36 +5842,36 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>281</v>
@@ -5546,7 +5885,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5558,20 +5897,16 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5619,25 +5954,25 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5648,21 +5983,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5674,20 +6009,18 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5723,19 +6056,19 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5744,19 +6077,19 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5764,10 +6097,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5781,28 +6114,28 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5851,7 +6184,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5860,19 +6193,19 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5880,10 +6213,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5906,13 +6239,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5963,7 +6296,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5981,7 +6314,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5992,10 +6325,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6024,7 +6357,7 @@
         <v>134</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>136</v>
@@ -6065,16 +6398,16 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>174</v>
@@ -6095,7 +6428,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6106,20 +6439,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -6131,25 +6462,29 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6191,25 +6526,25 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6220,10 +6555,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6240,26 +6575,24 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6271,7 +6604,7 @@
         <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6283,13 +6616,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6307,7 +6640,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6322,13 +6655,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6336,10 +6669,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6347,7 +6680,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6365,15 +6698,15 @@
         <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6382,10 +6715,10 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6397,13 +6730,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6421,7 +6754,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6436,10 +6769,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6450,10 +6783,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6464,7 +6797,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6476,19 +6809,17 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6501,7 +6832,7 @@
         <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>77</v>
@@ -6537,7 +6868,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6552,10 +6883,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6566,10 +6897,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6580,7 +6911,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6592,16 +6923,20 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6613,7 +6948,7 @@
         <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>77</v>
@@ -6649,13 +6984,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6664,13 +6999,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6678,14 +7013,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6704,16 +7039,20 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6725,7 +7064,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -6761,7 +7100,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6776,13 +7115,13 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6790,21 +7129,23 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6816,18 +7157,20 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6839,7 +7182,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -6851,13 +7194,11 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6875,13 +7216,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6890,24 +7231,24 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>372</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6930,13 +7271,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>373</v>
+        <v>165</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>374</v>
+        <v>166</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6987,7 +7328,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7005,7 +7346,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7016,14 +7357,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>283</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7045,12 +7386,14 @@
         <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7087,14 +7430,16 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>174</v>
@@ -7115,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7126,14 +7471,12 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7142,7 +7485,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7151,19 +7494,23 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7211,7 +7558,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7220,16 +7567,16 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7240,10 +7587,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7254,7 +7601,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7266,13 +7613,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>385</v>
+        <v>166</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7296,7 +7643,7 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>77</v>
@@ -7323,7 +7670,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7341,7 +7688,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7352,21 +7699,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>388</v>
+        <v>297</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>389</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7375,18 +7722,20 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7423,40 +7772,40 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>174</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>394</v>
+        <v>168</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7464,21 +7813,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>299</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7490,28 +7839,32 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>77</v>
@@ -7547,7 +7900,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>304</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7562,13 +7915,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7576,10 +7929,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7602,16 +7955,16 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>309</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>407</v>
+        <v>310</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>408</v>
+        <v>311</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7661,7 +8014,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>409</v>
+        <v>312</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7676,13 +8029,13 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7690,10 +8043,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7701,7 +8054,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7716,17 +8069,17 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>415</v>
+        <v>318</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7739,7 +8092,7 @@
         <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>77</v>
@@ -7775,7 +8128,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>418</v>
+        <v>320</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7790,13 +8143,13 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>419</v>
+        <v>321</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>420</v>
+        <v>322</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7804,10 +8157,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>324</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7821,7 +8174,7 @@
         <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>77</v>
@@ -7830,17 +8183,17 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>164</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>325</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>423</v>
+        <v>326</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>424</v>
+        <v>327</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7889,7 +8242,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7904,13 +8257,13 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7918,10 +8271,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7932,7 +8285,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7941,22 +8294,22 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>427</v>
+        <v>253</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>428</v>
+        <v>333</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>429</v>
+        <v>334</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>431</v>
+        <v>336</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8005,13 +8358,13 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
@@ -8020,10 +8373,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8034,10 +8387,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>433</v>
+        <v>341</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8057,19 +8410,23 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8117,7 +8474,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8129,13 +8486,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>167</v>
+        <v>348</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8146,44 +8503,46 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>170</v>
+        <v>366</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8231,28 +8590,28 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8260,14 +8619,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8280,25 +8639,25 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>136</v>
+        <v>375</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>142</v>
+        <v>376</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8347,7 +8706,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8359,13 +8718,13 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8376,10 +8735,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8390,7 +8749,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8402,17 +8761,19 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8437,13 +8798,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8461,28 +8822,28 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>384</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8490,10 +8851,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8504,10 +8865,10 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>77</v>
@@ -8516,17 +8877,19 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8575,28 +8938,28 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>395</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8604,10 +8967,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8618,7 +8981,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8630,18 +8993,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>165</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>166</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>457</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8689,25 +9050,25 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>167</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>459</v>
+        <v>168</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8718,10 +9079,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8732,7 +9093,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8744,18 +9105,16 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8791,37 +9150,37 @@
         <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>460</v>
+        <v>174</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8832,21 +9191,23 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="D62" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8858,18 +9219,16 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>468</v>
+        <v>407</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>470</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8917,7 +9276,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>466</v>
+        <v>174</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8929,23 +9288,3091 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AK66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AC73" s="2"/>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8955,7 +12382,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,9 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem, basert på no-basis-Organization.
+    <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem. 
 Denne profilen av Organization benyttes for å beskrive helseinstitusjoner og skal representere organisasjonen på lavest mulig nivå i organisasjonshierarkiet (f.eks. en avdeling eller klinikk eller post).
-For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle "organisasjonshierarki" skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH) </t>
+For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle “organisasjonshierarki” skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH) </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -116,7 +116,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Organization</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -271,7 +271,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}lmdi-org-identifier:Organisasjon skal ha minst ENH eller RSH identifier {identifier.where(system='urn:oid:2.16.578.1.12.4.1.4.101' or system='urn:oid:2.16.578.1.12.4.1.4.102').exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -486,11 +486,11 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">pattern:system}
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">org-1
@@ -515,10 +515,6 @@
     <t>ENH</t>
   </si>
   <si>
-    <t>organisasjonsnummer
-organization number</t>
-  </si>
-  <si>
     <t>Organisasjonsnummer fra Enhetsregisteret (ENH)</t>
   </si>
   <si>
@@ -563,6 +559,9 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -678,7 +677,7 @@
     <t>Organization.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>Organisasjonsnummer</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -761,10 +760,10 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
-    <t>Organization.identifier:RSH</t>
-  </si>
-  <si>
-    <t>RSH</t>
+    <t>Organization.identifier:RESH</t>
+  </si>
+  <si>
+    <t>RESH</t>
   </si>
   <si>
     <t>ID fra Register for enheter i spesialisthelsetjenesten (RESH)</t>
@@ -773,31 +772,34 @@
     <t>Det nivået aktiviteten har skjedd på.</t>
   </si>
   <si>
-    <t>Organization.identifier:RSH.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RSH.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RSH.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RSH.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RSH.system</t>
+    <t>Organization.identifier:RESH.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.system</t>
   </si>
   <si>
     <t>urn:oid:2.16.578.1.12.4.1.4.102</t>
   </si>
   <si>
-    <t>Organization.identifier:RSH.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RSH.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RSH.assigner</t>
+    <t>Organization.identifier:RESH.value</t>
+  </si>
+  <si>
+    <t>RESH-ID</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.assigner</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -852,17 +854,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Used to categorize the organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
+    <t>http://terminology.hl7.org/CodeSystem/organization-type</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -872,274 +864,6 @@
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva</t>
-  </si>
-  <si>
-    <t>organisatoriskNiva</t>
-  </si>
-  <si>
-    <t>Organisatorisk nivå</t>
-  </si>
-  <si>
-    <t>The kind(s) of organization that this is.</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8628</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.id</t>
-  </si>
-  <si>
-    <t>Organization.type.id</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.extension</t>
-  </si>
-  <si>
-    <t>Organization.type.extension</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.coding</t>
-  </si>
-  <si>
-    <t>Organization.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.coding.id</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.id</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.coding.extension</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.coding.system</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.coding.version</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.coding.code</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.coding.display</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskNiva.text</t>
-  </si>
-  <si>
-    <t>Organization.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse</t>
-  </si>
-  <si>
-    <t>organisatoriskBetegnelse</t>
-  </si>
-  <si>
-    <t>Organisatorisk betegnelse</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8624</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.id</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.extension</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.coding</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.coding.id</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.coding.extension</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.coding.system</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.coding.version</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.coding.code</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.coding.display</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Organization.type:organisatoriskBetegnelse.text</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -1221,7 +945,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1260,72 +984,10 @@
     <t>Organization.address.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:official</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offisiell adresse
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-address-official}
-</t>
-  </si>
-  <si>
-    <t>The concept of an officially registered address</t>
-  </si>
-  <si>
-    <t>Defines the concept of an officially registered address in Norway. Usually this will be the adress registered in "Folkeregisteret" for persons or "Enhetsregisteret" for organizations.</t>
-  </si>
-  <si>
     <t>Organization.address.extension:urbanDistrict</t>
   </si>
   <si>
     <t>urbanDistrict</t>
-  </si>
-  <si>
-    <t>bydel
-urban district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-urban-district}
-</t>
-  </si>
-  <si>
-    <t>urban district information</t>
-  </si>
-  <si>
-    <t>The name and number of the of the urban district of this address.</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:propertyInformation</t>
-  </si>
-  <si>
-    <t>propertyInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-propertyinformation}
-</t>
-  </si>
-  <si>
-    <t>Real property identification</t>
-  </si>
-  <si>
-    <t>Identification of a real property in Norway is defined using gårdsnummer, bruksnummer and kommunenummer. In addition real property can be rented out, the area of the real property that is rented is measured and is further identified by its festenummer. In addition some real property is split into sections identified by its seksjonsnummer</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:lmdiUrbanDistrict</t>
-  </si>
-  <si>
-    <t>lmdiUrbanDistrict</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-urban-district}
@@ -1344,8 +1006,7 @@
     <t>home | work | temp | old | billing - purpose of this address</t>
   </si>
   <si>
-    <t>The purpose of this address.
-Mapping of values to other Norwegian CodeSystems is documented in the implementation guide. In general the address used for visiting the person should have use "home" and type "physical" or "both". The "official" flag can be either true or false.</t>
+    <t>The purpose of this address.</t>
   </si>
   <si>
     <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
@@ -1381,8 +1042,7 @@
     <t>postal | physical | both</t>
   </si>
   <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
-Mapping of values to other Norwegian CodeSystems is documented in the implementation guide. In general the address used for visiting the person should have use "home" and type "physical" or "both". The "official" flag can be either true or false.</t>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
@@ -1460,15 +1120,14 @@
     <t>Organization.address.city</t>
   </si>
   <si>
-    <t>Municpality
-bypoststed</t>
-  </si>
-  <si>
-    <t>Poststed or city</t>
-  </si>
-  <si>
-    <t>When a postalcode is given the name of the city must be according to the official list of postalcodes used in Norway.
-The name of the city, town, village or other community or delivery center.</t>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
     <t>Erewhon</t>
@@ -1489,15 +1148,14 @@
     <t>Organization.address.district</t>
   </si>
   <si>
-    <t>County
-kommune</t>
+    <t xml:space="preserve">County
+</t>
   </si>
   <si>
     <t>Kommune</t>
   </si>
   <si>
-    <t>Name of the county (norwegian "kommune").
-The name of the administrative area (county).</t>
+    <t>The name of the administrative area (county).</t>
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
@@ -1527,13 +1185,19 @@
     <t>Organization.address.district.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Organization.address.district.extension:municipalitycode</t>
   </si>
   <si>
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-municipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-municipalitycode}
 </t>
   </si>
   <si>
@@ -1563,14 +1227,13 @@
   </si>
   <si>
     <t>Province
-Territoryfylke</t>
+Territory</t>
   </si>
   <si>
     <t>Fylkesnavn</t>
   </si>
   <si>
-    <t>Name of the norwegian "fylke"). If fylkes-number is required "eiendomsinformasjon" should be used with koded kommune-number.
-Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (i.e. US 2 letter state codes).</t>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1588,15 +1251,14 @@
     <t>Organization.address.postalCode</t>
   </si>
   <si>
-    <t>Zip
-postnummer</t>
+    <t xml:space="preserve">Zip
+</t>
   </si>
   <si>
     <t>Postal code for area</t>
   </si>
   <si>
-    <t>A postal code designating a region defined by the postal service.
-In Norway this is af four digit number defined by the norwegian postal service.</t>
+    <t>A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
     <t>9132</t>
@@ -1815,8 +1477,7 @@
     <t>Technical endpoints providing access to services operated for the organization</t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the organization.
-no-basis don't use this element to reference endpoints registered in the Norwegian Address register (endpoints connected to a kommunikasjonspart in tjenestebasert adressering). Endpoints registered in the Norwegian Address register should only be referenced through a kommunikasjonspart-Organization resource.</t>
+    <t>Technical endpoints providing access to services operated for the organization.</t>
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
@@ -2147,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN89"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2156,9 +1817,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.9921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2166,7 +1827,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.29296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2181,7 +1842,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.05078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3468,14 +3129,14 @@
         <v>158</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3490,13 +3151,13 @@
         <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
         <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>149</v>
@@ -3577,10 +3238,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3603,13 +3264,13 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3660,7 +3321,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3678,7 +3339,7 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3689,10 +3350,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3721,7 +3382,7 @@
         <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>136</v>
@@ -3762,16 +3423,16 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AC14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>174</v>
@@ -3792,7 +3453,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -4177,7 +3838,7 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>212</v>
@@ -4507,7 +4168,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4612,7 +4273,7 @@
         <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4635,13 +4296,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4692,7 +4353,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4710,7 +4371,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4724,7 +4385,7 @@
         <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4753,7 +4414,7 @@
         <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>136</v>
@@ -4794,16 +4455,16 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AC23" t="s" s="2">
+      <c r="AD23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>174</v>
@@ -4824,7 +4485,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -5209,10 +4870,10 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>213</v>
@@ -5297,7 +4958,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>221</v>
@@ -5409,7 +5070,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>230</v>
@@ -5523,10 +5184,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5549,70 +5210,70 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5627,24 +5288,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5652,7 +5313,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5670,16 +5331,16 @@
         <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5704,29 +5365,29 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Y31" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y31" s="2"/>
+      <c r="Z31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5741,40 +5402,38 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>77</v>
@@ -5783,19 +5442,19 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5820,11 +5479,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5842,36 +5503,36 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>281</v>
@@ -5885,7 +5546,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5897,16 +5558,20 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5954,25 +5619,25 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5983,21 +5648,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -6009,18 +5674,20 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6056,19 +5723,19 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6077,19 +5744,19 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6097,10 +5764,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6114,28 +5781,28 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6184,7 +5851,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6193,19 +5860,19 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6213,10 +5880,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6239,13 +5906,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6296,7 +5963,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6314,7 +5981,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6325,10 +5992,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6357,7 +6024,7 @@
         <v>134</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>136</v>
@@ -6398,16 +6065,16 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC37" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AC37" t="s" s="2">
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>174</v>
@@ -6428,7 +6095,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6439,18 +6106,20 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -6462,29 +6131,25 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6526,25 +6191,25 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6555,10 +6220,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6575,24 +6240,26 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6604,7 +6271,7 @@
         <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6616,13 +6283,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6640,7 +6307,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6655,13 +6322,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6669,10 +6336,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6680,7 +6347,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6698,15 +6365,15 @@
         <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6715,10 +6382,10 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6730,13 +6397,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6754,7 +6421,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6769,10 +6436,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6783,10 +6450,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6797,7 +6464,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6809,17 +6476,19 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6832,7 +6501,7 @@
         <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>77</v>
@@ -6868,7 +6537,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6883,10 +6552,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6897,10 +6566,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6911,7 +6580,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6923,20 +6592,16 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6948,7 +6613,7 @@
         <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>77</v>
@@ -6984,13 +6649,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6999,13 +6664,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -7013,14 +6678,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7039,20 +6704,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7064,7 +6725,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -7100,7 +6761,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7115,13 +6776,13 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7129,23 +6790,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -7157,20 +6816,18 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7182,7 +6839,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -7194,11 +6851,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -7216,13 +6875,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>263</v>
+        <v>369</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -7231,24 +6890,24 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>273</v>
+        <v>371</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7271,13 +6930,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>166</v>
+        <v>374</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7328,7 +6987,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7346,7 +7005,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7357,14 +7016,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>283</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7386,14 +7045,12 @@
         <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>134</v>
+        <v>376</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7430,16 +7087,14 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC46" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC46" s="2"/>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>174</v>
@@ -7460,7 +7115,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7471,12 +7126,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7485,7 +7142,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7494,23 +7151,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7558,7 +7211,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7567,16 +7220,16 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7587,10 +7240,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7601,7 +7254,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7613,13 +7266,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>165</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>166</v>
+        <v>385</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7643,7 +7296,7 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>77</v>
@@ -7670,7 +7323,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>167</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7688,7 +7341,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7699,21 +7352,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>132</v>
+        <v>389</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7722,20 +7375,18 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>134</v>
+        <v>390</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7772,40 +7423,40 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>174</v>
+        <v>392</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>168</v>
+        <v>394</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7813,21 +7464,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>299</v>
+        <v>396</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7839,32 +7490,28 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>77</v>
@@ -7900,7 +7547,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>304</v>
+        <v>401</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7915,13 +7562,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>305</v>
+        <v>402</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>306</v>
+        <v>403</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7929,10 +7576,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>308</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7955,16 +7602,16 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>309</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>310</v>
+        <v>407</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>311</v>
+        <v>408</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8014,7 +7661,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>312</v>
+        <v>409</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8029,13 +7676,13 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>314</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -8043,10 +7690,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>316</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8054,7 +7701,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -8069,17 +7716,17 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>318</v>
+        <v>415</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>319</v>
+        <v>416</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8092,7 +7739,7 @@
         <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>77</v>
@@ -8128,7 +7775,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8143,13 +7790,13 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>322</v>
+        <v>420</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8157,10 +7804,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>324</v>
+        <v>421</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8174,7 +7821,7 @@
         <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>77</v>
@@ -8183,17 +7830,17 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>164</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>325</v>
+        <v>423</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>326</v>
+        <v>423</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>327</v>
+        <v>424</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8242,7 +7889,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>328</v>
+        <v>421</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8257,13 +7904,13 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>330</v>
+        <v>425</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8271,10 +7918,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>332</v>
+        <v>426</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8285,7 +7932,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -8294,22 +7941,22 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>253</v>
+        <v>427</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>333</v>
+        <v>428</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>334</v>
+        <v>429</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>335</v>
+        <v>430</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8358,13 +8005,13 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
@@ -8373,10 +8020,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>339</v>
+        <v>432</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8387,10 +8034,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8410,23 +8057,19 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8474,7 +8117,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8486,13 +8129,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8503,46 +8146,44 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>365</v>
+        <v>134</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>366</v>
+        <v>170</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8590,28 +8231,28 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>364</v>
+        <v>174</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>370</v>
+        <v>167</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8619,14 +8260,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8639,25 +8280,25 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>376</v>
+        <v>142</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8706,7 +8347,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8718,13 +8359,13 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8735,10 +8376,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8749,7 +8390,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8761,19 +8402,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>378</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8798,13 +8437,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8822,28 +8461,28 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8851,10 +8490,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8865,10 +8504,10 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>77</v>
@@ -8877,19 +8516,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8938,28 +8575,28 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>395</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8967,10 +8604,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8981,7 +8618,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8993,16 +8630,18 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>165</v>
+        <v>455</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>166</v>
+        <v>456</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -9050,25 +8689,25 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>167</v>
+        <v>454</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>168</v>
+        <v>459</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -9079,10 +8718,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9093,7 +8732,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -9105,16 +8744,18 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -9150,37 +8791,37 @@
         <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>174</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -9191,23 +8832,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -9219,16 +8858,18 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9276,7 +8917,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>174</v>
+        <v>466</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9288,3091 +8929,23 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC73" s="2"/>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN89" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN89">
+  <autoFilter ref="A1:AN62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12382,7 +8955,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,9 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem. 
+    <t>Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem, basert på no-basis-Organization.
 Denne profilen av Organization benyttes for å beskrive helseinstitusjoner og skal representere organisasjonen på lavest mulig nivå i organisasjonshierarkiet (f.eks. en avdeling eller klinikk eller post).
-For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle “organisasjonshierarki” skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH) </t>
+For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle "organisasjonshierarki" skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -116,7 +116,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -271,7 +271,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}lmdi-org-identifier:Organisasjon skal ha minst ENH eller RSH identifier {identifier.where(system='urn:oid:2.16.578.1.12.4.1.4.101' or system='urn:oid:2.16.578.1.12.4.1.4.102').exists()}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -486,11 +486,11 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>closed</t>
+    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">org-1
@@ -515,6 +515,10 @@
     <t>ENH</t>
   </si>
   <si>
+    <t>organisasjonsnummer
+organization number</t>
+  </si>
+  <si>
     <t>Organisasjonsnummer fra Enhetsregisteret (ENH)</t>
   </si>
   <si>
@@ -559,9 +563,6 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -677,7 +678,7 @@
     <t>Organization.identifier.value</t>
   </si>
   <si>
-    <t>Organisasjonsnummer</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -760,10 +761,10 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
-    <t>Organization.identifier:RESH</t>
-  </si>
-  <si>
-    <t>RESH</t>
+    <t>Organization.identifier:RSH</t>
+  </si>
+  <si>
+    <t>RSH</t>
   </si>
   <si>
     <t>ID fra Register for enheter i spesialisthelsetjenesten (RESH)</t>
@@ -772,34 +773,31 @@
     <t>Det nivået aktiviteten har skjedd på.</t>
   </si>
   <si>
-    <t>Organization.identifier:RESH.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.system</t>
+    <t>Organization.identifier:RSH.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.system</t>
   </si>
   <si>
     <t>urn:oid:2.16.578.1.12.4.1.4.102</t>
   </si>
   <si>
-    <t>Organization.identifier:RESH.value</t>
-  </si>
-  <si>
-    <t>RESH-ID</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:RESH.assigner</t>
+    <t>Organization.identifier:RSH.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RSH.assigner</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -854,7 +852,17 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/organization-type</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Used to categorize the organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.system}
+</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -864,6 +872,274 @@
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva</t>
+  </si>
+  <si>
+    <t>organisatoriskNiva</t>
+  </si>
+  <si>
+    <t>Organisatorisk nivå</t>
+  </si>
+  <si>
+    <t>The kind(s) of organization that this is.</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8628</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.id</t>
+  </si>
+  <si>
+    <t>Organization.type.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.extension</t>
+  </si>
+  <si>
+    <t>Organization.type.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding</t>
+  </si>
+  <si>
+    <t>Organization.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.system</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.version</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.code</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.display</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskNiva.text</t>
+  </si>
+  <si>
+    <t>Organization.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse</t>
+  </si>
+  <si>
+    <t>organisatoriskBetegnelse</t>
+  </si>
+  <si>
+    <t>Organisatorisk betegnelse</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8624</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.system</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.version</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.code</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.display</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Organization.type:organisatoriskBetegnelse.text</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -945,7 +1221,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
 </t>
   </si>
   <si>
@@ -984,20 +1260,62 @@
     <t>Organization.address.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:official</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-address-official}
+</t>
+  </si>
+  <si>
+    <t>The concept of an officially registered address</t>
+  </si>
+  <si>
+    <t>Defines the concept of an officially registered address in Norway. Usually this will be the adress registered in "Folkeregisteret" for persons or "Enhetsregisteret" for organizations.</t>
+  </si>
+  <si>
     <t>Organization.address.extension:urbanDistrict</t>
   </si>
   <si>
     <t>urbanDistrict</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-urban-district}
+    <t>bydel
+urban district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-urban-district}
 </t>
   </si>
   <si>
-    <t>Kodet verdi for bydel</t>
-  </si>
-  <si>
-    <t>Information about Norwegian urban district (bydel)</t>
+    <t>Kodet verdi for bydel. Kodeverk "Bydelsnummer" (OID 3403)</t>
+  </si>
+  <si>
+    <t>Kodet verdi for bydel. Koder fra kodeverk "Bydelsnummer" (OID 3403) skal benyttes</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:propertyInformation</t>
+  </si>
+  <si>
+    <t>propertyInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-propertyinformation}
+</t>
+  </si>
+  <si>
+    <t>Real property identification</t>
+  </si>
+  <si>
+    <t>Identification of a real property in Norway is defined using gårdsnummer, bruksnummer and kommunenummer. In addition real property can be rented out, the area of the real property that is rented is measured and is further identified by its festenummer. In addition some real property is split into sections identified by its seksjonsnummer</t>
   </si>
   <si>
     <t>Organization.address.use</t>
@@ -1006,7 +1324,8 @@
     <t>home | work | temp | old | billing - purpose of this address</t>
   </si>
   <si>
-    <t>The purpose of this address.</t>
+    <t>The purpose of this address.
+Mapping of values to other Norwegian CodeSystems is documented in the implementation guide. In general the address used for visiting the person should have use "home" and type "physical" or "both". The "official" flag can be either true or false.</t>
   </si>
   <si>
     <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
@@ -1042,7 +1361,8 @@
     <t>postal | physical | both</t>
   </si>
   <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
+Mapping of values to other Norwegian CodeSystems is documented in the implementation guide. In general the address used for visiting the person should have use "home" and type "physical" or "both". The "official" flag can be either true or false.</t>
   </si>
   <si>
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
@@ -1120,88 +1440,87 @@
     <t>Organization.address.city</t>
   </si>
   <si>
-    <t xml:space="preserve">Municpality
+    <t>Municpality
+bypoststed</t>
+  </si>
+  <si>
+    <t>Poststed or city</t>
+  </si>
+  <si>
+    <t>When a postalcode is given the name of the city must be according to the official list of postalcodes used in Norway.
+The name of the city, town, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>./Jurisdiction</t>
+  </si>
+  <si>
+    <t>Organization.address.district</t>
+  </si>
+  <si>
+    <t>County
+kommune</t>
+  </si>
+  <si>
+    <t>Kommune</t>
+  </si>
+  <si>
+    <t>Name of the county (norwegian "kommune").
+The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>Organization.address.district.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Organization.address.district.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.district.extension:municipalitycode</t>
+  </si>
+  <si>
+    <t>municipalitycode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-municipalitycode}
 </t>
   </si>
   <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>Organization.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>Kommune</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>Organization.address.district.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Organization.address.district.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Organization.address.district.extension:municipalitycode</t>
-  </si>
-  <si>
-    <t>municipalitycode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-municipalitycode}
-</t>
-  </si>
-  <si>
-    <t>Kodet verdi for kommune</t>
+    <t>Kodet verdi for kommune. Kodeverk "Kommunenummer og regionale spesialkoder" (OID 3402)</t>
+  </si>
+  <si>
+    <t>Kodet verdi for kommune. Koder fra kodeverk "Kommunenummer og regionale spesialkoder" (OID 3402) skal benyttes</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1227,13 +1546,14 @@
   </si>
   <si>
     <t>Province
-Territory</t>
+Territoryfylke</t>
   </si>
   <si>
     <t>Fylkesnavn</t>
   </si>
   <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+    <t>Name of the norwegian "fylke"). If fylkes-number is required "eiendomsinformasjon" should be used with koded kommune-number.
+Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (i.e. US 2 letter state codes).</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1251,14 +1571,15 @@
     <t>Organization.address.postalCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Zip
-</t>
+    <t>Zip
+postnummer</t>
   </si>
   <si>
     <t>Postal code for area</t>
   </si>
   <si>
-    <t>A postal code designating a region defined by the postal service.</t>
+    <t>A postal code designating a region defined by the postal service.
+In Norway this is af four digit number defined by the norwegian postal service.</t>
   </si>
   <si>
     <t>9132</t>
@@ -1477,7 +1798,8 @@
     <t>Technical endpoints providing access to services operated for the organization</t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the organization.</t>
+    <t>Technical endpoints providing access to services operated for the organization.
+no-basis don't use this element to reference endpoints registered in the Norwegian Address register (endpoints connected to a kommunikasjonspart in tjenestebasert adressering). Endpoints registered in the Norwegian Address register should only be referenced through a kommunikasjonspart-Organization resource.</t>
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
@@ -1808,7 +2130,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1817,9 +2139,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.9921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1827,7 +2149,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.29296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1842,7 +2164,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.05078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.5390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3129,14 +3451,14 @@
         <v>158</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3151,13 +3473,13 @@
         <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
         <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>149</v>
@@ -3238,10 +3560,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3264,13 +3586,13 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3321,7 +3643,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3339,7 +3661,7 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3350,10 +3672,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3382,7 +3704,7 @@
         <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>136</v>
@@ -3423,16 +3745,16 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>174</v>
@@ -3453,7 +3775,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3838,7 +4160,7 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>212</v>
@@ -4168,7 +4490,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4273,7 +4595,7 @@
         <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4296,13 +4618,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4353,7 +4675,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4371,7 +4693,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4385,7 +4707,7 @@
         <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4414,7 +4736,7 @@
         <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>136</v>
@@ -4455,16 +4777,16 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>174</v>
@@ -4485,7 +4807,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4870,10 +5192,10 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>213</v>
@@ -4958,7 +5280,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>221</v>
@@ -5070,7 +5392,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>230</v>
@@ -5184,10 +5506,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5210,26 +5532,26 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="O30" t="s" s="2">
+      <c r="P30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5273,7 +5595,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5288,24 +5610,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5313,7 +5635,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5331,16 +5653,16 @@
         <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5365,29 +5687,29 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5402,38 +5724,40 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>77</v>
@@ -5442,19 +5766,19 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5479,13 +5803,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5503,36 +5825,36 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>281</v>
@@ -5546,7 +5868,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5558,20 +5880,16 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5619,25 +5937,25 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5648,21 +5966,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5674,20 +5992,18 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5723,19 +6039,19 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5744,19 +6060,19 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5764,10 +6080,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5781,28 +6097,28 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5851,7 +6167,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5860,19 +6176,19 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5880,10 +6196,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5906,13 +6222,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5963,7 +6279,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5981,7 +6297,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5992,10 +6308,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6024,7 +6340,7 @@
         <v>134</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>136</v>
@@ -6065,16 +6381,16 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>174</v>
@@ -6095,7 +6411,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6106,20 +6422,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -6131,25 +6445,29 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6191,25 +6509,25 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6220,10 +6538,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6240,26 +6558,24 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6271,7 +6587,7 @@
         <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6283,13 +6599,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6307,7 +6623,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6322,13 +6638,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6336,10 +6652,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6347,7 +6663,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6365,15 +6681,15 @@
         <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6382,10 +6698,10 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6397,13 +6713,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6421,7 +6737,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6436,10 +6752,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6450,10 +6766,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6464,7 +6780,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6476,19 +6792,17 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6501,7 +6815,7 @@
         <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>77</v>
@@ -6537,7 +6851,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6552,10 +6866,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6566,10 +6880,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6580,7 +6894,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6592,16 +6906,20 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6613,7 +6931,7 @@
         <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>77</v>
@@ -6649,13 +6967,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6664,13 +6982,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6678,14 +6996,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6704,16 +7022,20 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6725,7 +7047,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -6761,7 +7083,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6776,13 +7098,13 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6790,21 +7112,23 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6816,18 +7140,20 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6839,7 +7165,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -6851,13 +7177,11 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6875,13 +7199,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6890,24 +7214,24 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>372</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6930,13 +7254,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>373</v>
+        <v>165</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>374</v>
+        <v>166</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6987,7 +7311,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7005,7 +7329,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7016,14 +7340,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>283</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7045,12 +7369,14 @@
         <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7087,14 +7413,16 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>174</v>
@@ -7115,7 +7443,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7126,14 +7454,12 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7142,7 +7468,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7151,19 +7477,23 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7211,7 +7541,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7220,16 +7550,16 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7240,10 +7570,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7254,7 +7584,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7266,13 +7596,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>385</v>
+        <v>166</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7296,7 +7626,7 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>77</v>
@@ -7323,7 +7653,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7341,7 +7671,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7352,21 +7682,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>388</v>
+        <v>297</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>389</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7375,18 +7705,20 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7423,40 +7755,40 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>174</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>394</v>
+        <v>168</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7464,21 +7796,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>299</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7490,28 +7822,32 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>77</v>
@@ -7547,7 +7883,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>304</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7562,13 +7898,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7576,10 +7912,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7602,16 +7938,16 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>309</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>407</v>
+        <v>310</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>408</v>
+        <v>311</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7661,7 +7997,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>409</v>
+        <v>312</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7676,13 +8012,13 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7690,10 +8026,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7701,7 +8037,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7716,17 +8052,17 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>415</v>
+        <v>318</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7739,7 +8075,7 @@
         <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>77</v>
@@ -7775,7 +8111,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>418</v>
+        <v>320</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7790,13 +8126,13 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>419</v>
+        <v>321</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>420</v>
+        <v>322</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7804,10 +8140,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>324</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7821,7 +8157,7 @@
         <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>77</v>
@@ -7830,17 +8166,17 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>164</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>325</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>423</v>
+        <v>326</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>424</v>
+        <v>327</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7889,7 +8225,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7904,13 +8240,13 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7918,10 +8254,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7932,7 +8268,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7941,22 +8277,22 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>427</v>
+        <v>253</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>428</v>
+        <v>333</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>429</v>
+        <v>334</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>431</v>
+        <v>336</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8005,13 +8341,13 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
@@ -8020,10 +8356,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8034,10 +8370,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>433</v>
+        <v>341</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8057,19 +8393,23 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8117,7 +8457,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8129,13 +8469,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>167</v>
+        <v>348</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8146,44 +8486,46 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>170</v>
+        <v>366</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8231,28 +8573,28 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8260,14 +8602,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8280,25 +8622,25 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>136</v>
+        <v>375</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>142</v>
+        <v>376</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8347,7 +8689,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8359,13 +8701,13 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8376,10 +8718,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8390,7 +8732,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8402,17 +8744,19 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8437,13 +8781,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8461,28 +8805,28 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>384</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8490,10 +8834,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8504,10 +8848,10 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>77</v>
@@ -8516,17 +8860,19 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8575,28 +8921,28 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>395</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8604,10 +8950,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8618,7 +8964,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8630,18 +8976,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>165</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>166</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>457</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8689,25 +9033,25 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>167</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>459</v>
+        <v>168</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8718,10 +9062,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8732,7 +9076,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8744,18 +9088,16 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8791,37 +9133,37 @@
         <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>460</v>
+        <v>174</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8832,12 +9174,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8858,18 +9202,16 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>405</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>470</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8917,7 +9259,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>466</v>
+        <v>174</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8929,23 +9271,2977 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AK65" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AC72" s="2"/>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8955,7 +12251,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="572">
   <si>
     <t>Property</t>
   </si>
@@ -1312,10 +1312,10 @@
 </t>
   </si>
   <si>
-    <t>Real property identification</t>
-  </si>
-  <si>
-    <t>Identification of a real property in Norway is defined using gårdsnummer, bruksnummer and kommunenummer. In addition real property can be rented out, the area of the real property that is rented is measured and is further identified by its festenummer. In addition some real property is split into sections identified by its seksjonsnummer</t>
+    <t>real property identification</t>
+  </si>
+  <si>
+    <t>Additional information identifying norwegian real property.</t>
   </si>
   <si>
     <t>Organization.address.use</t>
@@ -1358,7 +1358,7 @@
     <t>Organization.address.type</t>
   </si>
   <si>
-    <t>postal | physical | both</t>
+    <t>physical</t>
   </si>
   <si>
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
@@ -1368,16 +1368,10 @@
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
-    <t>physical</t>
-  </si>
-  <si>
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+    <t>http://hl7.no/fhir/ig/lmdi/ValueSet/lmdi-address-type</t>
   </si>
   <si>
     <t>Address.type</t>
@@ -2164,7 +2158,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.9921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -9418,7 +9412,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9678,10 +9672,10 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="T66" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>77</v>
@@ -9695,29 +9689,27 @@
       <c r="X66" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Y66" s="2"/>
+      <c r="Z66" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9732,7 +9724,7 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>429</v>
@@ -9746,10 +9738,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9775,16 +9767,16 @@
         <v>164</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9797,7 +9789,7 @@
         <v>77</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>77</v>
@@ -9833,7 +9825,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9848,10 +9840,10 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9862,10 +9854,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9891,10 +9883,10 @@
         <v>164</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9909,7 +9901,7 @@
         <v>77</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>77</v>
@@ -9945,7 +9937,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9960,13 +9952,13 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9974,14 +9966,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10003,10 +9995,10 @@
         <v>164</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10021,7 +10013,7 @@
         <v>77</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>77</v>
@@ -10057,7 +10049,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10072,13 +10064,13 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10086,14 +10078,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10115,13 +10107,13 @@
         <v>164</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10135,7 +10127,7 @@
         <v>77</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>77</v>
@@ -10171,7 +10163,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10186,10 +10178,10 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10200,10 +10192,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10229,10 +10221,10 @@
         <v>164</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10312,10 +10304,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10422,13 +10414,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -10450,13 +10442,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10516,7 +10508,7 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>138</v>
@@ -10536,10 +10528,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10565,10 +10557,10 @@
         <v>164</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10592,7 +10584,7 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="X74" t="s" s="2">
         <v>77</v>
@@ -10619,7 +10611,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10648,14 +10640,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10677,10 +10669,10 @@
         <v>164</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10731,7 +10723,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10746,13 +10738,13 @@
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10760,14 +10752,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10789,10 +10781,10 @@
         <v>164</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10807,7 +10799,7 @@
         <v>77</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>77</v>
@@ -10843,7 +10835,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10858,13 +10850,13 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10872,10 +10864,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10901,13 +10893,13 @@
         <v>164</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10957,7 +10949,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10972,13 +10964,13 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10986,10 +10978,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11015,14 +11007,14 @@
         <v>222</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -11035,7 +11027,7 @@
         <v>77</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>77</v>
@@ -11071,7 +11063,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11086,10 +11078,10 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>228</v>
@@ -11100,10 +11092,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11126,17 +11118,17 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -11185,7 +11177,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11203,7 +11195,7 @@
         <v>259</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>168</v>
@@ -11214,10 +11206,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11240,19 +11232,19 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -11301,7 +11293,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11319,7 +11311,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -11330,10 +11322,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11442,10 +11434,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11556,14 +11548,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11585,10 +11577,10 @@
         <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>136</v>
@@ -11643,7 +11635,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11672,10 +11664,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11701,14 +11693,14 @@
         <v>188</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11736,10 +11728,10 @@
         <v>193</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11757,7 +11749,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11775,7 +11767,7 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>
@@ -11786,10 +11778,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11812,17 +11804,17 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11871,7 +11863,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11886,10 +11878,10 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>77</v>
@@ -11900,10 +11892,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11929,14 +11921,14 @@
         <v>378</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11985,7 +11977,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12000,10 +11992,10 @@
         <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -12014,10 +12006,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12043,14 +12035,14 @@
         <v>389</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -12099,7 +12091,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12114,10 +12106,10 @@
         <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -12128,10 +12120,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12154,17 +12146,17 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -12213,7 +12205,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
